--- a/parser/schedules/2-курс-бакалавриат-ОФО-48.xlsx
+++ b/parser/schedules/2-курс-бакалавриат-ОФО-48.xlsx
@@ -8230,376 +8230,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AFCA9C8D-3F81-46B1-8A0D-CD5AA91AB872}" diskRevisions="1" revisionId="141" version="38">
-  <header guid="{4205C2CF-C5C5-4DF4-A062-D581C10DE946}" dateTime="2023-02-15T14:49:29" maxSheetId="7" userName="Карелина Ольга Васильевна" r:id="rId1">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3D427160-871C-48A2-9DB9-3E459B5B301D}" dateTime="2023-02-15T14:50:19" maxSheetId="7" userName="Карелина Ольга Васильевна" r:id="rId2" minRId="1" maxRId="4">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C9135F26-72EC-4C72-ACC4-9120649F5E2D}" dateTime="2023-02-15T14:51:42" maxSheetId="7" userName="Карелина Ольга Васильевна" r:id="rId3" minRId="5" maxRId="9">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E271295A-10F4-461B-8220-E061693DFFA5}" dateTime="2023-02-15T14:52:38" maxSheetId="7" userName="Карелина Ольга Васильевна" r:id="rId4" minRId="10" maxRId="11">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{58A69DAB-58A9-43B8-84D0-D8939229239F}" dateTime="2023-02-15T15:09:05" maxSheetId="7" userName="Арибжанова Динара Максудовна" r:id="rId5">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DB551960-7335-4B50-B0A1-5E81AD0CD487}" dateTime="2023-02-15T15:23:50" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId6">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0106741D-7AAC-4814-BCC9-25B471EBAB5C}" dateTime="2023-02-15T15:43:00" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId7">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1AA46BCC-B6F6-44CE-AA7D-A2C0F738D281}" dateTime="2023-02-15T16:14:03" maxSheetId="7" userName="Минеева Мария Владимировна" r:id="rId8">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1F8896C6-24B8-4960-B065-2FA2F274D6CF}" dateTime="2023-02-15T17:10:56" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId9">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3639132F-8DD0-4D1D-AB1F-D043F9C727EC}" dateTime="2023-02-20T11:08:50" maxSheetId="7" userName="Арибжанова Динара Максудовна" r:id="rId10">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{953D850B-0865-40D0-874B-F35E22611E13}" dateTime="2023-02-20T12:58:11" maxSheetId="7" userName="Минеева Мария Владимировна" r:id="rId11">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D4FBB341-B6B7-45DC-9DD3-B822A5404FC5}" dateTime="2023-02-20T15:15:48" maxSheetId="7" userName="Арибжанова Динара Максудовна" r:id="rId12">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8EACCCC1-7C8A-4265-967E-6F1DAC616ED2}" dateTime="2023-02-21T10:40:47" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId13">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CEE46309-D7AC-478A-949B-276CE6FF9F6F}" dateTime="2023-02-22T16:52:31" maxSheetId="7" userName="Егорьева Дарья Николаевна" r:id="rId14">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A44B2C67-C742-4BC5-877A-D2C7E87AB8F3}" dateTime="2023-02-27T11:07:58" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId15">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9D534C30-266C-4E5B-8761-6C98C1F04A16}" dateTime="2023-02-27T13:06:39" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId16" minRId="66" maxRId="67">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{796A3E6F-39F4-499C-8E85-C0072647FFCD}" dateTime="2023-02-27T13:06:55" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId17" minRId="71">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{04528F37-FDA6-429B-8D8B-0D5DDB696B49}" dateTime="2023-02-27T15:01:32" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId18">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{95A60ACB-51B0-4373-8D9B-CDCF5064BCD1}" dateTime="2023-02-28T10:32:30" maxSheetId="7" userName="Арибжанова Динара Максудовна" r:id="rId19" minRId="75" maxRId="76">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B235D8AB-8C2E-41C5-9184-04658564349D}" dateTime="2023-02-28T11:37:47" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId20">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CAFFD345-A256-4311-BA4D-547052FE35DE}" dateTime="2023-02-28T11:45:22" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId21">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2567818B-8492-4764-998C-36A8B4322396}" dateTime="2023-02-28T11:47:29" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId22">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{079561C6-3AB7-49DF-9AE4-95531690F0B0}" dateTime="2023-02-28T11:48:49" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId23" minRId="86" maxRId="87">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A1D66E97-1FDA-4DCF-A8F0-BAA66F33982A}" dateTime="2023-02-28T11:50:56" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId24" minRId="88" maxRId="90">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5FBE27F6-A900-4518-8B14-6289D0076079}" dateTime="2023-02-28T11:51:44" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId25">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F80F66AC-06CD-4770-B2AE-006BDF1B22E2}" dateTime="2023-02-28T12:03:04" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId26" minRId="91">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5A304910-BCA4-49E3-BE06-17B04A4D0C74}" dateTime="2023-02-28T12:10:33" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId27">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FF3FA6A0-4B5B-413B-8586-838788D016C0}" dateTime="2023-02-28T12:11:58" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId28">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{81C23613-52DB-4CCA-B768-7268CA5CB7E4}" dateTime="2023-02-28T12:12:12" maxSheetId="7" userName="Егорьева Дарья Николаевна" r:id="rId29">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{195C25A2-CA22-4C03-AB1A-D27645A3C1C4}" dateTime="2023-02-28T12:22:12" maxSheetId="7" userName="Егорьева Дарья Николаевна" r:id="rId30">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{07C48FA3-CB96-45B5-8930-3A49251DB753}" dateTime="2023-02-28T12:31:14" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId31">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9831530D-6694-40B1-A674-50541CE41D95}" dateTime="2023-02-28T13:41:15" maxSheetId="7" userName="Карелина Ольга Васильевна" r:id="rId32" minRId="110" maxRId="112">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2E495120-0E76-4DFB-B838-41FF8867169C}" dateTime="2023-02-28T13:42:45" maxSheetId="7" userName="Карелина Ольга Васильевна" r:id="rId33" minRId="119">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2154E309-8821-42DA-83FF-13E465EE3A05}" dateTime="2023-03-02T10:54:17" maxSheetId="7" userName="Арибжанова Динара Максудовна" r:id="rId34" minRId="120" maxRId="122">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D1153CDA-1A42-4AEC-917D-0E66C36EDEF2}" dateTime="2023-03-02T14:31:00" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId35">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0AE77D45-8FF6-4ABA-9790-1AC8961F37F1}" dateTime="2023-03-02T14:49:35" maxSheetId="7" userName="Карелина Ольга Васильевна" r:id="rId36" minRId="126">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6E0B04DD-B030-43FD-AD48-F9783BD6C261}" dateTime="2023-03-02T15:06:46" maxSheetId="7" userName="Хапова Виолетта Валерьевна" r:id="rId37">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
   <header guid="{AFCA9C8D-3F81-46B1-8A0D-CD5AA91AB872}" dateTime="2023-03-02T16:24:01" maxSheetId="7" userName="Криндаль Анастасия Владимировна" r:id="rId38">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -8611,1110 +8241,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{8631711A-BD37-41AF-9ECA-8BB32FCA77C0}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$61</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$61</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{8631711A-BD37-41AF-9ECA-8BB32FCA77C0}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{BD2AA4DE-9B4C-40EC-B742-9D5E4F9572F8}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$56</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$56</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{BD2AA4DE-9B4C-40EC-B742-9D5E4F9572F8}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{8631711A-BD37-41AF-9ECA-8BB32FCA77C0}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$61</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$61</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{8631711A-BD37-41AF-9ECA-8BB32FCA77C0}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$B$1:$L$60</formula>
-    <oldFormula>'ИГУиП 2 курс'!$B$1:$L$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{C8FB494D-F0A9-4916-90C9-E2955F9D3B2F}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$64</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$60</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$59</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$59</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$P$57</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$P$57</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{C8FB494D-F0A9-4916-90C9-E2955F9D3B2F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$B$1:$L$60</formula>
-    <oldFormula>'ИГУиП 2 курс'!$B$1:$L$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="66" sId="2">
-    <oc r="E23" t="inlineStr">
-      <is>
-        <t>Методы исследования брендов 
-(Л 2-14 н)
-Довжик В.Н.   
-А-512</t>
-      </is>
-    </oc>
-    <nc r="E23" t="inlineStr">
-      <is>
-        <t>Методы исследования брендов 
-(Л 2-14 н)
-Довжик В.Н.   
-А-516</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="67" sId="2">
-    <oc r="F23" t="inlineStr">
-      <is>
-        <t>Методы исследования брендов 
-(Л 2-14 н)
-Довжик В.Н.   
-А-512</t>
-      </is>
-    </oc>
-    <nc r="F23" t="inlineStr">
-      <is>
-        <t>Методы исследования брендов 
-(Л 2-14 н)
-Довжик В.Н.   
-А-516</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="E23:F24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$B$1:$L$60</formula>
-    <oldFormula>'ИГУиП 2 курс'!$B$1:$L$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="71" sId="2">
-    <oc r="E21" t="inlineStr">
-      <is>
-        <t>Методы исследования брендов 
-(ПЗ 2-13 н)
-Довжик В.Н.   
-А-512</t>
-      </is>
-    </oc>
-    <nc r="E21" t="inlineStr">
-      <is>
-        <t>Методы исследования брендов 
-(ПЗ 2-13 н)
-Довжик В.Н.   
-А-516</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="E21:E22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$B$1:$L$60</formula>
-    <oldFormula>'ИГУиП 2 курс'!$B$1:$L$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="3" sqref="E51:F51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="75" sId="3">
-    <oc r="E51" t="inlineStr">
-      <is>
-        <t>Маркетинг в гостиничной индустрии 
-(Л 1,3,5 н) (ПЗ 7 н) 
-Коренко Ю.М. У-302</t>
-      </is>
-    </oc>
-    <nc r="E51" t="inlineStr">
-      <is>
-        <t>Маркетинг в гостиничной индустрии 
-(Л 1,3,5 н) (ПЗ 7 н) 
-Коренко Ю.М. ПА-21</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="3">
-    <oc r="F51" t="inlineStr">
-      <is>
-        <t>Маркетинг в гостиничной индустрии 
-(Л 1,3,5 н) Коренко Ю.М. У-302</t>
-      </is>
-    </oc>
-    <nc r="F51" t="inlineStr">
-      <is>
-        <t>Маркетинг в гостиничной индустрии 
-(Л 1,3,5 н) Коренко Ю.М. ПА-21</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{8631711A-BD37-41AF-9ECA-8BB32FCA77C0}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$61</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$61</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{8631711A-BD37-41AF-9ECA-8BB32FCA77C0}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="5" sqref="L32" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1" sId="5">
-    <oc r="L29" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13н)
-Давлетшина Л.А. У-232</t>
-      </is>
-    </oc>
-    <nc r="L29"/>
-  </rcc>
-  <rcc rId="2" sId="5">
-    <oc r="L31" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13н)
-Давлетшина Л.А. У-232</t>
-      </is>
-    </oc>
-    <nc r="L31"/>
-  </rcc>
-  <rfmt sheetId="5" sqref="L30 L32">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="5" sqref="L30 L32">
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="3" sId="5">
-    <oc r="L30" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13н)
-Давлетшина Л.А. У-233</t>
-      </is>
-    </oc>
-    <nc r="L30" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13н)
-Давлетшина Л.А. У-232</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="5">
-    <oc r="L32" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13н)
-Давлетшина Л.А. У-233</t>
-      </is>
-    </oc>
-    <nc r="L32" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13н)
-Давлетшина Л.А. У-232</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="5" sqref="L32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="5" sqref="L30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$B$1:$L$60</formula>
-    <oldFormula>'ИГУиП 2 курс'!$B$1:$L$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="4" sqref="G13:H14" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="4" sqref="L43:L44" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="4" sqref="E43:F44" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="4" sqref="Q49" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="86" sId="4">
-    <oc r="G13" t="inlineStr">
-      <is>
-        <t>Финансы (Л 2-14 н)
-Ревзон О.А.
-У-216</t>
-      </is>
-    </oc>
-    <nc r="G13" t="inlineStr">
-      <is>
-        <t>Финансы (Л 2-14 н)
-Ревзон О.А.
-У-220</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="87" sId="4">
-    <oc r="H13" t="inlineStr">
-      <is>
-        <t>Финансы (Л 2-14 н)
-Ревзон О.А. 
-У-216</t>
-      </is>
-    </oc>
-    <nc r="H13" t="inlineStr">
-      <is>
-        <t>Финансы (Л 2-14 н)
-Ревзон О.А. 
-У-220</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="88" sId="4">
-    <oc r="E43" t="inlineStr">
-      <is>
-        <t>Финансы (Л 1-13 н)
-Ревзон О.А.
-У-412</t>
-      </is>
-    </oc>
-    <nc r="E43" t="inlineStr">
-      <is>
-        <t>Финансы (Л 1-13 н)
-Ревзон О.А.
-У-330</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="89" sId="4">
-    <oc r="F43" t="inlineStr">
-      <is>
-        <t>Финансы (Л 1-13 н)
-Ревзон О.А.
-У-412</t>
-      </is>
-    </oc>
-    <nc r="F43" t="inlineStr">
-      <is>
-        <t>Финансы (Л 1-13 н)
-Ревзон О.А.
-У-330</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="90" sId="4">
-    <oc r="L43" t="inlineStr">
-      <is>
-        <t>Финансы (Л 1-13 н)
-Ревзон О.А.
-У-412</t>
-      </is>
-    </oc>
-    <nc r="L43" t="inlineStr">
-      <is>
-        <t>Финансы (Л 1-13 н)
-Ревзон О.А.
-У-330</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="4" sqref="E43:F44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="4" sqref="L43:L44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="4" sqref="G13:H14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="91" sId="4">
-    <oc r="Q49" t="inlineStr">
-      <is>
-        <t>Основы управления на рынке 
-ценных бумаг (Л 1-15 н) 
-Токун Л.В.
-ЛК-114</t>
-      </is>
-    </oc>
-    <nc r="Q49" t="inlineStr">
-      <is>
-        <t>Основы управления на рынке 
-ценных бумаг (Л 1-15 н) 
-Токун Л.В.
-ЛК-102</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="4" sqref="G13:H14" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="4" sqref="E43:F44" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="4" sqref="L43:L44" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="4" sqref="Q49" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{C8FB494D-F0A9-4916-90C9-E2955F9D3B2F}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$64</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$60</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$59</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$59</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$P$57</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$P$57</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{C8FB494D-F0A9-4916-90C9-E2955F9D3B2F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="5" sId="5">
-    <oc r="M14" t="inlineStr">
-      <is>
-        <t>Маркетинговые технологии управления (ПЗ 2-12н) 
-Тазов П.Ю. У-339</t>
-      </is>
-    </oc>
-    <nc r="M14" t="inlineStr">
-      <is>
-        <t>Маркетинговые технологии управления
-(ПЗ 2-12н) Тазов П.Ю. У-339</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="5">
-    <oc r="K14" t="inlineStr">
-      <is>
-        <t>Системно-креативные технологии решения проблем (Л 2-12н) 
-Иванова М.В. ЛК-525</t>
-      </is>
-    </oc>
-    <nc r="K14" t="inlineStr">
-      <is>
-        <t>Системно-креативные технологии решения проблем (Л 2-12н) Иванова М.В. ЛК-525</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="5">
-    <oc r="M19" t="inlineStr">
-      <is>
-        <t>Экономические основы ведения бизнеса (ПЗ 3-13н) Камчатова Е.Ю.
-ЛК-411</t>
-      </is>
-    </oc>
-    <nc r="M19" t="inlineStr">
-      <is>
-        <t>Экономические основы ведения бизнеса (ПЗ 3-13н) Камчатова Е.Ю. ЛК-411</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="5">
-    <oc r="M23" t="inlineStr">
-      <is>
-        <t>Экономические основы ведения бизнеса (Л,ПЗ 2-14н) Камчатова Е.Ю.
-ЛК-411</t>
-      </is>
-    </oc>
-    <nc r="M23" t="inlineStr">
-      <is>
-        <t>Экономические основы ведения бизнеса (Л,ПЗ 2-14н) Камчатова Е.Ю. ЛК-411</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="5">
-    <oc r="P23" t="inlineStr">
-      <is>
-        <t>Управление коммуникациями инновационной деятельности 
-(Л,ПЗ 2-14н)
-Прохорова И.С. ЛК-415</t>
-      </is>
-    </oc>
-    <nc r="P23" t="inlineStr">
-      <is>
-        <t>Управление коммуникациями инновационной деятельности (Л,ПЗ 2-14н)
-Прохорова И.С. ЛК-415</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{C8FB494D-F0A9-4916-90C9-E2955F9D3B2F}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$64</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$60</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$59</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$59</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$P$57</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$P$57</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{C8FB494D-F0A9-4916-90C9-E2955F9D3B2F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{167B2FA6-680D-4C78-A44F-5AB83F1E2371}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$61</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$61</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{167B2FA6-680D-4C78-A44F-5AB83F1E2371}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="110" sId="5">
-    <nc r="M13" t="inlineStr">
-      <is>
-        <t>Маркетинговые технологии управления
-(ПЗ 3-15н) Тазов П.Ю. У-223</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="111" sId="5">
-    <oc r="M54" t="inlineStr">
-      <is>
-        <t>Маркетинговые технологии управления
-(ПЗ 2-12н) Тазов П.Ю. ЛК-411</t>
-      </is>
-    </oc>
-    <nc r="M54"/>
-  </rcc>
-  <rcc rId="112" sId="5">
-    <oc r="M56" t="inlineStr">
-      <is>
-        <t>Маркетинговые технологии управления
-(ПЗ 12н) Тазов П.Ю. ЛК-411</t>
-      </is>
-    </oc>
-    <nc r="M56"/>
-  </rcc>
-  <rcv guid="{70DB2FA9-43EF-45F4-A37B-CA6A7FE41590}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$56</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{70DB2FA9-43EF-45F4-A37B-CA6A7FE41590}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="119" sId="5">
-    <oc r="M19" t="inlineStr">
-      <is>
-        <t>Экономические основы ведения бизнеса (ПЗ 3-13н) Камчатова Е.Ю. ЛК-411</t>
-      </is>
-    </oc>
-    <nc r="M19" t="inlineStr">
-      <is>
-        <t>Экономические основы ведения бизнеса 
-(ПЗ 3-13н) Камчатова Е.Ю. ЛК-411</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="120" sId="2">
-    <oc r="G21" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13 н) 
-Долгих Е.А. 
-ЛК-110</t>
-      </is>
-    </oc>
-    <nc r="G21" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13 н) 
-Першина Т.А.
-ЛК-110</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="121" sId="2">
-    <oc r="H17" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13 н) 
-Долгих Е.А.
-ЛК-101</t>
-      </is>
-    </oc>
-    <nc r="H17" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13 н) 
-Першина Т.А.
-ЛК-101</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="122" sId="2">
-    <oc r="I23" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13 н) 
-Долгих Е.А.
-ЛК-102</t>
-      </is>
-    </oc>
-    <nc r="I23" t="inlineStr">
-      <is>
-        <t>Бизнес-статистика (ПЗ 2-13 н) 
-Першина Т.А.
-ЛК-102</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="I23:I24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="G21:G22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="H17:H18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$B$1:$L$60</formula>
-    <oldFormula>'ИГУиП 2 курс'!$B$1:$L$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="126" sId="5">
-    <oc r="G43" t="inlineStr">
-      <is>
-        <t>Прикладная математика (ПЗ 1-12н)
-Баутдинов Д.Т. ЛК-507</t>
-      </is>
-    </oc>
-    <nc r="G43" t="inlineStr">
-      <is>
-        <t>Прикладная математика (ПЗ 1-12н)
-Баутдинов Д.Т. ЛК-321</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{70DB2FA9-43EF-45F4-A37B-CA6A7FE41590}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$56</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{70DB2FA9-43EF-45F4-A37B-CA6A7FE41590}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{167B2FA6-680D-4C78-A44F-5AB83F1E2371}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$61</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$61</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{167B2FA6-680D-4C78-A44F-5AB83F1E2371}" action="add"/>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9819,171 +8345,6 @@
     <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
   </rdn>
   <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="10" sId="5">
-    <oc r="O32" t="inlineStr">
-      <is>
-        <t>Экономика транспортно-логистической деятельности
-(ПЗ 2-14н) Сакульева Т.Н. ЛК-528</t>
-      </is>
-    </oc>
-    <nc r="O32" t="inlineStr">
-      <is>
-        <t>Экономика транспортно-логистической деятельности (ПЗ 2-14н) 
-Сакульева Т.Н. ЛК-528</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="5">
-    <oc r="O29" t="inlineStr">
-      <is>
-        <t>Экономика транспортно-логистической деятельности  
-(Л,ПЗ 2-13н) Сакульева Т.Н.
- ЛК-528</t>
-      </is>
-    </oc>
-    <nc r="O29" t="inlineStr">
-      <is>
-        <t>Экономика транспортно-логистической деятельности (Л,ПЗ 2-13н) 
-Сакульева Т.Н.  ЛК-528</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{8631711A-BD37-41AF-9ECA-8BB32FCA77C0}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$61</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$61</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{8631711A-BD37-41AF-9ECA-8BB32FCA77C0}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$B$1:$L$60</formula>
-    <oldFormula>'ИГУиП 2 курс'!$B$1:$L$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$B$1:$L$60</formula>
-    <oldFormula>'ИГУиП 2 курс'!$B$1:$L$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{802177CC-F86B-4D46-B586-E0A6EE076BDC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{BD2AA4DE-9B4C-40EC-B742-9D5E4F9572F8}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$56</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$56</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{BD2AA4DE-9B4C-40EC-B742-9D5E4F9572F8}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{167B2FA6-680D-4C78-A44F-5AB83F1E2371}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИГУиП 2 курс'!$A$1:$L$56</formula>
-    <oldFormula>'ИГУиП 2 курс'!$A$1:$L$56</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИМ 2 курс'!$A$1:$Q$61</formula>
-    <oldFormula>'ИМ 2 курс'!$A$1:$Q$61</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</formula>
-    <oldFormula>'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИЭиФ 2 курс '!$A$1:$Y$64</formula>
-    <oldFormula>'ИЭиФ 2 курс '!$A$1:$Y$64</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'ИОМ 2 курс'!$A$1:$Q$58</formula>
-    <oldFormula>'ИОМ 2 курс'!$A$1:$Q$58</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>'3 курс'!$A$1:$Q$68</formula>
-    <oldFormula>'3 курс'!$A$1:$Q$68</oldFormula>
-  </rdn>
-  <rcv guid="{167B2FA6-680D-4C78-A44F-5AB83F1E2371}" action="add"/>
 </revisions>
 </file>
 
